--- a/src/TestData/Load_Facebook_Excel.xlsx
+++ b/src/TestData/Load_Facebook_Excel.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Page Component" sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestSuite!$B$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestSuite!$B$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="244">
   <si>
     <t>Browser</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Keyword</t>
   </si>
   <si>
-    <t>TC002</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>Execute</t>
   </si>
   <si>
-    <t>TC003</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>TC004</t>
-  </si>
-  <si>
     <t>Error</t>
   </si>
   <si>
@@ -713,30 +704,15 @@
     <t>To capture Screenshot</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>check appointment</t>
-  </si>
-  <si>
-    <t>register patient</t>
-  </si>
-  <si>
     <t>testsiteBaseURL2</t>
   </si>
   <si>
     <t>testsiteBaseURL3</t>
   </si>
   <si>
-    <t>navigate to google</t>
-  </si>
-  <si>
     <t>navigate to fb</t>
   </si>
   <si>
-    <t>button_login_fb</t>
-  </si>
-  <si>
     <t>Method Name</t>
   </si>
   <si>
@@ -779,26 +755,13 @@
     <t>S1</t>
   </si>
   <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>PASS</t>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="20">
     <font>
       <sz val="10"/>
@@ -1492,89 +1455,89 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="25.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="61.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="4" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="61.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="6" customFormat="1" ht="42" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1">
@@ -1582,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C13" s="31">
         <v>0.75</v>
@@ -1594,7 +1557,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" s="31">
         <v>0.5</v>
@@ -1605,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C15" s="31">
         <v>0.5</v>
@@ -1616,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16" s="7">
         <v>0.5</v>
@@ -1627,7 +1590,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C17" s="7">
         <v>0.75</v>
@@ -1638,7 +1601,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C18" s="7">
         <v>0.75</v>
@@ -1649,7 +1612,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="7">
         <v>0.5</v>
@@ -1660,7 +1623,7 @@
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C20" s="7"/>
     </row>
@@ -1669,7 +1632,7 @@
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" s="7"/>
     </row>
@@ -1696,130 +1659,130 @@
     <row r="26" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="8"/>
       <c r="B38" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="8"/>
       <c r="B40" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
@@ -1832,40 +1795,40 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B43" s="2"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
@@ -1874,16 +1837,16 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1"/>
@@ -1922,158 +1885,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="43.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="14.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>229</v>
+        <v>242</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2088,31 +1959,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="44" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="44" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="44" width="6.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="44" width="29.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="44" width="23.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="44" width="25.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="45" width="31.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="55" width="7.20703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="44" width="6.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="44" width="16.28515625" collapsed="true"/>
-    <col min="11" max="11" style="44" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="44" width="10.42578125" collapsed="true"/>
-    <col min="13" max="15" bestFit="true" customWidth="true" style="44" width="7.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="44" width="3.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" hidden="true" style="44" width="7.5703125" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" style="44" width="13.85546875" collapsed="true"/>
-    <col min="20" max="21" bestFit="true" customWidth="true" style="44" width="32.42578125" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="44" width="7.5703125" collapsed="true"/>
-    <col min="23" max="16384" style="44" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" style="44" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" style="44" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.7109375" style="44" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29" style="44" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.42578125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.7109375" style="44" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="31.28515625" style="45" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.140625" style="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.85546875" style="44" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16.28515625" style="44" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="44" collapsed="1"/>
+    <col min="12" max="12" width="10.42578125" style="44" customWidth="1" collapsed="1"/>
+    <col min="13" max="15" width="7.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="3" style="44" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="7.5703125" style="44" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="13.85546875" style="44" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="32.42578125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="7.5703125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="16384" width="9.140625" style="44" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="55" customFormat="1">
@@ -2120,34 +1991,34 @@
         <v>3</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D1" s="54" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" s="54" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H1" s="54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="54" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" s="55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K1" s="55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" s="56"/>
       <c r="M1" s="56"/>
@@ -2169,23 +2040,23 @@
         <v>1</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H2" s="55"/>
       <c r="I2" s="45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
@@ -2207,23 +2078,23 @@
         <v>2</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E3" s="45" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H3" s="55"/>
       <c r="I3" s="45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K3" s="45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L3" s="50"/>
       <c r="M3" s="50"/>
@@ -2245,23 +2116,23 @@
         <v>3</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F4" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="45" t="s">
         <v>171</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>174</v>
       </c>
       <c r="H4" s="55"/>
       <c r="I4" s="45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
@@ -2283,23 +2154,23 @@
         <v>4</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E5" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="G5" s="45" t="s">
         <v>172</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>175</v>
       </c>
       <c r="H5" s="55"/>
       <c r="I5" s="45" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L5" s="50"/>
       <c r="M5" s="50"/>
@@ -2319,17 +2190,17 @@
         <v>5</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H6" s="55"/>
       <c r="K6" s="45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L6" s="50"/>
       <c r="M6" s="50"/>
@@ -2348,14 +2219,14 @@
         <v>6</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H7" s="55"/>
       <c r="K7" s="45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L7" s="50"/>
       <c r="M7" s="50"/>
@@ -2374,20 +2245,20 @@
         <v>7</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E8" s="45" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H8" s="55"/>
       <c r="K8" s="45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L8" s="50"/>
       <c r="M8" s="50"/>
@@ -2400,61 +2271,58 @@
     </row>
     <row r="9" spans="1:22" s="46" customFormat="1">
       <c r="A9" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C9" s="45">
         <v>8</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H9" s="55"/>
       <c r="K9" s="46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9" s="52"/>
     </row>
     <row r="10" spans="1:22" s="46" customFormat="1">
       <c r="A10" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" s="45">
         <v>9</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="K10" s="46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R10" s="53"/>
       <c r="S10" s="53"/>
     </row>
     <row r="11" spans="1:22" s="46" customFormat="1">
       <c r="A11" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C11" s="45">
         <v>10</v>
       </c>
-      <c r="E11" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="46" t="s">
-        <v>236</v>
+      <c r="E11" s="45" t="s">
+        <v>218</v>
       </c>
       <c r="H11" s="55"/>
       <c r="K11" s="46" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R11" s="53"/>
       <c r="S11" s="53"/>
@@ -3778,19 +3646,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="17" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="17" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="17" width="12.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="17" width="14.7109375" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="17" width="10.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="17" width="21.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="17" width="12.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="17" width="24.85546875" collapsed="true"/>
-    <col min="10" max="10" style="17" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="17" width="14.7109375" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" style="17" width="14.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="17" width="22.42578125" collapsed="true"/>
-    <col min="15" max="16384" style="17" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="17" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" style="17" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" style="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" style="17" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="10" style="17" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21" style="17" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="17" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.140625" style="17" collapsed="1"/>
+    <col min="11" max="11" width="14.7109375" style="17" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="14" style="17" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.42578125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.140625" style="17" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="21.75" customHeight="1">
@@ -3798,46 +3666,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="M1" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="21.75" customHeight="1">
@@ -3845,219 +3713,219 @@
         <v>5</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K2" s="14">
         <v>90001</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M2" s="14">
         <v>64</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="21.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K3" s="14">
         <v>201301</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M3" s="14">
         <v>54</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="21.75" customHeight="1">
       <c r="A4" s="14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K4" s="14">
         <v>90001</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M4" s="14">
         <v>69</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="16" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K5" s="14">
         <v>10012</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M5" s="14">
         <v>70</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="21.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K6" s="14">
         <v>10012</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M6" s="14">
         <v>72</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1">
@@ -4097,15 +3965,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="37" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="37" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="37" width="14.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="37" width="12.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="37" width="38.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="39" width="13.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="39" width="13.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="37" width="11.7109375" collapsed="true"/>
-    <col min="9" max="16384" style="37" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" style="37" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" style="37" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" style="37" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.140625" style="37" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.5703125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.28515625" style="39" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.42578125" style="39" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="37" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="37" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="39" customFormat="1" ht="22.5" customHeight="1">
@@ -4113,495 +3981,495 @@
         <v>6</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E1" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="43" t="s">
         <v>18</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="43" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="36" customFormat="1">
       <c r="A2" s="36" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="38" customFormat="1">
       <c r="A3" s="38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="36" customFormat="1">
       <c r="A4" s="36" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="38" customFormat="1">
       <c r="A5" s="38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="36" customFormat="1">
       <c r="A6" s="36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="38" customFormat="1">
       <c r="A7" s="38" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="36" customFormat="1">
       <c r="A8" s="36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="38" customFormat="1">
       <c r="A9" s="38" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="36" customFormat="1">
       <c r="A10" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>195</v>
-      </c>
       <c r="F10" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="38" customFormat="1">
       <c r="A11" s="38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="36" customFormat="1">
       <c r="A12" s="36" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="38" customFormat="1">
       <c r="A13" s="38" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="36" customFormat="1">
       <c r="A14" s="36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="38" customFormat="1">
       <c r="A15" s="38" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="36" customFormat="1">
       <c r="A16" s="36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="38" customFormat="1">
       <c r="A17" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="36" customFormat="1">
       <c r="A18" s="36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="38" customFormat="1">
       <c r="A19" s="38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="36" customFormat="1">
       <c r="A20" s="36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="38" customFormat="1">
       <c r="A21" s="38" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="36" customFormat="1">
       <c r="A22" s="36" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="38" customFormat="1">
       <c r="A23" s="38" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="36" customFormat="1">
       <c r="A24" s="36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="38" customFormat="1">
       <c r="A25" s="38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="36" customFormat="1">
       <c r="A26" s="36" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="38" customFormat="1">
       <c r="A27" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="36" customFormat="1">
       <c r="A28" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="38" customFormat="1">
       <c r="C29" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -4772,25 +4640,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="7.85546875" collapsed="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4810,254 +4678,254 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="6" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="6" width="24.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>90</v>
-      </c>
       <c r="E3" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="E9" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>84</v>
-      </c>
       <c r="F9" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="E10" s="14">
         <v>90001</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="E11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
         <v>86</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5076,114 +4944,114 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="7" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="7" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
       <c r="A1" s="22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18">
       <c r="A2" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:8" ht="18">
       <c r="A5" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18">
@@ -5191,19 +5059,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="25"/>
     </row>
@@ -5212,13 +5080,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
@@ -5226,58 +5094,58 @@
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18">
       <c r="A9" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>118</v>
-      </c>
       <c r="C9" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18">
       <c r="A10" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -5285,16 +5153,16 @@
     </row>
     <row r="11" spans="1:8" ht="18">
       <c r="A11" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
@@ -5302,16 +5170,16 @@
     </row>
     <row r="12" spans="1:8" ht="18">
       <c r="A12" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
@@ -5322,13 +5190,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -5336,12 +5204,12 @@
     </row>
     <row r="14" spans="1:8" ht="18">
       <c r="A14" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="D14" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -5349,12 +5217,12 @@
     </row>
     <row r="15" spans="1:8" ht="18">
       <c r="A15" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="D15" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -5362,12 +5230,12 @@
     </row>
     <row r="16" spans="1:8" ht="18">
       <c r="A16" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -5375,12 +5243,12 @@
     </row>
     <row r="17" spans="1:7" ht="18">
       <c r="A17" s="27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>

--- a/src/TestData/Load_Facebook_Excel.xlsx
+++ b/src/TestData/Load_Facebook_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6135" tabRatio="700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6135" tabRatio="700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="259">
   <si>
     <t>Browser</t>
   </si>
@@ -756,6 +756,51 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Logging into PRM</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>navigate to google</t>
+  </si>
+  <si>
+    <t>Navigate to google.com</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>check appointment</t>
+  </si>
+  <si>
+    <t>checking appointment</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>register patient</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>Navigate to fb.com</t>
   </si>
 </sst>
 </file>
@@ -1885,10 +1930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1930,20 +1975,112 @@
       <c r="A2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D6" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1959,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V334"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/src/TestData/Load_Facebook_Excel.xlsx
+++ b/src/TestData/Load_Facebook_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6135" tabRatio="700" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6135" tabRatio="700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="12" r:id="rId1"/>
@@ -1932,7 +1932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2096,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V334"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2170,8 +2170,8 @@
       <c r="V1" s="59"/>
     </row>
     <row r="2" spans="1:22" s="45" customFormat="1">
-      <c r="A2" s="45" t="s">
-        <v>2</v>
+      <c r="A2" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="C2" s="45">
         <v>1</v>
@@ -2208,8 +2208,8 @@
       <c r="V2" s="50"/>
     </row>
     <row r="3" spans="1:22" s="45" customFormat="1" ht="31.5">
-      <c r="A3" s="45" t="s">
-        <v>2</v>
+      <c r="A3" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="C3" s="45">
         <v>2</v>
@@ -2246,8 +2246,8 @@
       <c r="V3" s="50"/>
     </row>
     <row r="4" spans="1:22" s="45" customFormat="1">
-      <c r="A4" s="45" t="s">
-        <v>2</v>
+      <c r="A4" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="C4" s="45">
         <v>3</v>
@@ -2284,8 +2284,8 @@
       <c r="V4" s="50"/>
     </row>
     <row r="5" spans="1:22" s="45" customFormat="1">
-      <c r="A5" s="45" t="s">
-        <v>2</v>
+      <c r="A5" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="C5" s="45">
         <v>4</v>
@@ -2320,8 +2320,8 @@
       <c r="V5" s="50"/>
     </row>
     <row r="6" spans="1:22" s="45" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="45" t="s">
-        <v>2</v>
+      <c r="A6" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="C6" s="45">
         <v>5</v>
@@ -2349,8 +2349,8 @@
       <c r="V6" s="50"/>
     </row>
     <row r="7" spans="1:22" s="45" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>2</v>
+      <c r="A7" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="C7" s="45">
         <v>6</v>
@@ -2375,8 +2375,8 @@
       <c r="V7" s="50"/>
     </row>
     <row r="8" spans="1:22" s="45" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="45" t="s">
-        <v>2</v>
+      <c r="A8" s="46" t="s">
+        <v>90</v>
       </c>
       <c r="C8" s="45">
         <v>7</v>

--- a/src/TestData/Load_Facebook_Excel.xlsx
+++ b/src/TestData/Load_Facebook_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6135" tabRatio="700" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="6135" tabRatio="700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="260">
   <si>
     <t>Browser</t>
   </si>
@@ -801,13 +801,16 @@
   </si>
   <si>
     <t>Navigate to fb.com</t>
+  </si>
+  <si>
+    <t>Class</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -877,12 +880,6 @@
       <sz val="8"/>
       <name val="Mic Shell Dlg"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1087,7 +1084,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1136,22 +1133,22 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1166,35 +1163,32 @@
     <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1932,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1965,7 +1959,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>26</v>
@@ -1988,7 +1982,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>11</v>
@@ -2094,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V334"/>
+  <dimension ref="A1:V333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2109,7 +2103,7 @@
     <col min="5" max="5" width="23.42578125" style="44" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="25.7109375" style="44" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="31.28515625" style="45" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.140625" style="55" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.140625" style="54" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="6.85546875" style="44" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="16.28515625" style="44" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="9.140625" style="44" collapsed="1"/>
@@ -2123,55 +2117,55 @@
     <col min="23" max="16384" width="9.140625" style="44" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="55" customFormat="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:22" s="54" customFormat="1">
+      <c r="A1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="59"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="58"/>
     </row>
     <row r="2" spans="1:22" s="45" customFormat="1">
       <c r="A2" s="46" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C2" s="45">
         <v>1</v>
@@ -2185,7 +2179,7 @@
       <c r="F2" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="55"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="45" t="s">
         <v>71</v>
       </c>
@@ -2195,21 +2189,21 @@
       <c r="K2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
     </row>
     <row r="3" spans="1:22" s="45" customFormat="1" ht="31.5">
       <c r="A3" s="46" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C3" s="45">
         <v>2</v>
@@ -2223,7 +2217,7 @@
       <c r="F3" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="H3" s="55"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="45" t="s">
         <v>71</v>
       </c>
@@ -2233,21 +2227,21 @@
       <c r="K3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
     </row>
     <row r="4" spans="1:22" s="45" customFormat="1">
       <c r="A4" s="46" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C4" s="45">
         <v>3</v>
@@ -2264,28 +2258,28 @@
       <c r="G4" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="H4" s="55"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="45" t="s">
         <v>71</v>
       </c>
       <c r="K4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
     </row>
     <row r="5" spans="1:22" s="45" customFormat="1">
       <c r="A5" s="46" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C5" s="45">
         <v>4</v>
@@ -2302,26 +2296,26 @@
       <c r="G5" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="H5" s="55"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="45" t="s">
         <v>71</v>
       </c>
       <c r="K5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
     </row>
     <row r="6" spans="1:22" s="45" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="46" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C6" s="45">
         <v>5</v>
@@ -2335,22 +2329,22 @@
       <c r="G6" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="H6" s="55"/>
+      <c r="H6" s="54"/>
       <c r="K6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
     </row>
     <row r="7" spans="1:22" s="45" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="46" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C7" s="45">
         <v>6</v>
@@ -2361,22 +2355,22 @@
       <c r="F7" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="H7" s="55"/>
+      <c r="H7" s="54"/>
       <c r="K7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
     </row>
     <row r="8" spans="1:22" s="45" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="46" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C8" s="45">
         <v>7</v>
@@ -2393,18 +2387,18 @@
       <c r="G8" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="H8" s="55"/>
+      <c r="H8" s="54"/>
       <c r="K8" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
     </row>
     <row r="9" spans="1:22" s="46" customFormat="1">
       <c r="A9" s="46" t="s">
@@ -2419,11 +2413,11 @@
       <c r="F9" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="H9" s="55"/>
+      <c r="H9" s="54"/>
       <c r="K9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="52"/>
+      <c r="N9" s="51"/>
     </row>
     <row r="10" spans="1:22" s="46" customFormat="1">
       <c r="A10" s="46" t="s">
@@ -2438,1332 +2432,1351 @@
       <c r="F10" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="55" t="s">
+      <c r="H10" s="54" t="s">
         <v>243</v>
       </c>
       <c r="K10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-    </row>
-    <row r="11" spans="1:22" s="46" customFormat="1">
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+    </row>
+    <row r="11" spans="1:22" s="45" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="46" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="45">
+        <v>7</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="54"/>
+      <c r="K11" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+    </row>
+    <row r="12" spans="1:22" s="46" customFormat="1">
+      <c r="A12" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="45">
         <v>10</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E12" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="K11" s="46" t="s">
+      <c r="H12" s="54"/>
+      <c r="K12" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-    </row>
-    <row r="12" spans="1:22" s="47" customFormat="1">
-      <c r="G12" s="45"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
     </row>
     <row r="13" spans="1:22" s="47" customFormat="1">
       <c r="G13" s="45"/>
-      <c r="H13" s="55"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:22" s="47" customFormat="1">
+      <c r="E14" s="50"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="55"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:22" s="47" customFormat="1">
-      <c r="E15" s="51"/>
+      <c r="E15" s="50"/>
       <c r="G15" s="45"/>
-      <c r="H15" s="55"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:22" s="47" customFormat="1">
-      <c r="E16" s="51"/>
       <c r="G16" s="45"/>
-      <c r="H16" s="55"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="6:8" s="47" customFormat="1">
       <c r="G17" s="45"/>
-      <c r="H17" s="55"/>
+      <c r="H17" s="54"/>
     </row>
     <row r="18" spans="6:8" s="47" customFormat="1">
       <c r="G18" s="45"/>
-      <c r="H18" s="55"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" spans="6:8" s="47" customFormat="1">
       <c r="G19" s="45"/>
-      <c r="H19" s="55"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="6:8" s="47" customFormat="1">
       <c r="G20" s="45"/>
-      <c r="H20" s="55"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="6:8" s="47" customFormat="1">
       <c r="G21" s="45"/>
-      <c r="H21" s="55"/>
+      <c r="H21" s="54"/>
     </row>
     <row r="22" spans="6:8" s="47" customFormat="1">
       <c r="G22" s="45"/>
-      <c r="H22" s="55"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="6:8" s="47" customFormat="1">
       <c r="G23" s="45"/>
-      <c r="H23" s="55"/>
+      <c r="H23" s="54"/>
     </row>
     <row r="24" spans="6:8" s="47" customFormat="1">
+      <c r="F24" s="48"/>
       <c r="G24" s="45"/>
-      <c r="H24" s="55"/>
+      <c r="H24" s="54"/>
     </row>
     <row r="25" spans="6:8" s="47" customFormat="1">
-      <c r="F25" s="49"/>
       <c r="G25" s="45"/>
-      <c r="H25" s="55"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="6:8" s="47" customFormat="1">
       <c r="G26" s="45"/>
-      <c r="H26" s="55"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="6:8" s="47" customFormat="1">
       <c r="G27" s="45"/>
-      <c r="H27" s="55"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="6:8" s="47" customFormat="1">
       <c r="G28" s="45"/>
-      <c r="H28" s="55"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="6:8" s="47" customFormat="1">
       <c r="G29" s="45"/>
-      <c r="H29" s="55"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="6:8" s="47" customFormat="1">
+      <c r="F30" s="48"/>
       <c r="G30" s="45"/>
-      <c r="H30" s="55"/>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" spans="6:8" s="47" customFormat="1">
-      <c r="F31" s="49"/>
       <c r="G31" s="45"/>
-      <c r="H31" s="55"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="6:8" s="47" customFormat="1">
       <c r="G32" s="45"/>
-      <c r="H32" s="55"/>
+      <c r="H32" s="54"/>
     </row>
     <row r="33" spans="7:8" s="47" customFormat="1">
       <c r="G33" s="45"/>
-      <c r="H33" s="55"/>
+      <c r="H33" s="54"/>
     </row>
     <row r="34" spans="7:8" s="47" customFormat="1">
       <c r="G34" s="45"/>
-      <c r="H34" s="55"/>
+      <c r="H34" s="54"/>
     </row>
     <row r="35" spans="7:8" s="47" customFormat="1">
       <c r="G35" s="45"/>
-      <c r="H35" s="55"/>
+      <c r="H35" s="54"/>
     </row>
     <row r="36" spans="7:8" s="47" customFormat="1">
       <c r="G36" s="45"/>
-      <c r="H36" s="55"/>
+      <c r="H36" s="54"/>
     </row>
     <row r="37" spans="7:8" s="47" customFormat="1">
       <c r="G37" s="45"/>
-      <c r="H37" s="55"/>
+      <c r="H37" s="54"/>
     </row>
     <row r="38" spans="7:8" s="47" customFormat="1">
       <c r="G38" s="45"/>
-      <c r="H38" s="55"/>
+      <c r="H38" s="54"/>
     </row>
     <row r="39" spans="7:8" s="47" customFormat="1">
       <c r="G39" s="45"/>
-      <c r="H39" s="55"/>
+      <c r="H39" s="54"/>
     </row>
     <row r="40" spans="7:8" s="47" customFormat="1">
       <c r="G40" s="45"/>
-      <c r="H40" s="55"/>
+      <c r="H40" s="54"/>
     </row>
     <row r="41" spans="7:8" s="47" customFormat="1">
       <c r="G41" s="45"/>
-      <c r="H41" s="55"/>
+      <c r="H41" s="54"/>
     </row>
     <row r="42" spans="7:8" s="47" customFormat="1">
       <c r="G42" s="45"/>
-      <c r="H42" s="55"/>
+      <c r="H42" s="54"/>
     </row>
     <row r="43" spans="7:8" s="47" customFormat="1">
       <c r="G43" s="45"/>
-      <c r="H43" s="55"/>
+      <c r="H43" s="54"/>
     </row>
     <row r="44" spans="7:8" s="47" customFormat="1">
       <c r="G44" s="45"/>
-      <c r="H44" s="55"/>
+      <c r="H44" s="54"/>
     </row>
     <row r="45" spans="7:8" s="47" customFormat="1">
       <c r="G45" s="45"/>
-      <c r="H45" s="55"/>
+      <c r="H45" s="54"/>
     </row>
     <row r="46" spans="7:8" s="47" customFormat="1">
       <c r="G46" s="45"/>
-      <c r="H46" s="55"/>
+      <c r="H46" s="54"/>
     </row>
     <row r="47" spans="7:8" s="47" customFormat="1">
       <c r="G47" s="45"/>
-      <c r="H47" s="55"/>
+      <c r="H47" s="54"/>
     </row>
     <row r="48" spans="7:8" s="47" customFormat="1">
       <c r="G48" s="45"/>
-      <c r="H48" s="55"/>
+      <c r="H48" s="54"/>
     </row>
     <row r="49" spans="7:8" s="47" customFormat="1">
       <c r="G49" s="45"/>
-      <c r="H49" s="55"/>
+      <c r="H49" s="54"/>
     </row>
     <row r="50" spans="7:8" s="47" customFormat="1">
       <c r="G50" s="45"/>
-      <c r="H50" s="55"/>
+      <c r="H50" s="54"/>
     </row>
     <row r="51" spans="7:8" s="47" customFormat="1">
       <c r="G51" s="45"/>
-      <c r="H51" s="55"/>
+      <c r="H51" s="54"/>
     </row>
     <row r="52" spans="7:8" s="47" customFormat="1">
       <c r="G52" s="45"/>
-      <c r="H52" s="55"/>
+      <c r="H52" s="54"/>
     </row>
     <row r="53" spans="7:8" s="47" customFormat="1">
       <c r="G53" s="45"/>
-      <c r="H53" s="55"/>
+      <c r="H53" s="54"/>
     </row>
     <row r="54" spans="7:8" s="47" customFormat="1">
       <c r="G54" s="45"/>
-      <c r="H54" s="55"/>
+      <c r="H54" s="54"/>
     </row>
     <row r="55" spans="7:8" s="47" customFormat="1">
       <c r="G55" s="45"/>
-      <c r="H55" s="55"/>
+      <c r="H55" s="54"/>
     </row>
     <row r="56" spans="7:8" s="47" customFormat="1">
       <c r="G56" s="45"/>
-      <c r="H56" s="55"/>
+      <c r="H56" s="54"/>
     </row>
     <row r="57" spans="7:8" s="47" customFormat="1">
       <c r="G57" s="45"/>
-      <c r="H57" s="55"/>
+      <c r="H57" s="54"/>
     </row>
     <row r="58" spans="7:8" s="47" customFormat="1">
       <c r="G58" s="45"/>
-      <c r="H58" s="55"/>
+      <c r="H58" s="54"/>
     </row>
     <row r="59" spans="7:8" s="47" customFormat="1">
       <c r="G59" s="45"/>
-      <c r="H59" s="55"/>
+      <c r="H59" s="54"/>
     </row>
     <row r="60" spans="7:8" s="47" customFormat="1">
       <c r="G60" s="45"/>
-      <c r="H60" s="55"/>
+      <c r="H60" s="54"/>
     </row>
     <row r="61" spans="7:8" s="47" customFormat="1">
       <c r="G61" s="45"/>
-      <c r="H61" s="55"/>
+      <c r="H61" s="54"/>
     </row>
     <row r="62" spans="7:8" s="47" customFormat="1">
       <c r="G62" s="45"/>
-      <c r="H62" s="55"/>
+      <c r="H62" s="54"/>
     </row>
     <row r="63" spans="7:8" s="47" customFormat="1">
       <c r="G63" s="45"/>
-      <c r="H63" s="55"/>
+      <c r="H63" s="54"/>
     </row>
     <row r="64" spans="7:8" s="47" customFormat="1">
       <c r="G64" s="45"/>
-      <c r="H64" s="55"/>
+      <c r="H64" s="54"/>
     </row>
     <row r="65" spans="7:8" s="47" customFormat="1">
       <c r="G65" s="45"/>
-      <c r="H65" s="55"/>
+      <c r="H65" s="54"/>
     </row>
     <row r="66" spans="7:8" s="47" customFormat="1">
       <c r="G66" s="45"/>
-      <c r="H66" s="55"/>
+      <c r="H66" s="54"/>
     </row>
     <row r="67" spans="7:8" s="47" customFormat="1">
       <c r="G67" s="45"/>
-      <c r="H67" s="55"/>
+      <c r="H67" s="54"/>
     </row>
     <row r="68" spans="7:8" s="47" customFormat="1">
       <c r="G68" s="45"/>
-      <c r="H68" s="55"/>
+      <c r="H68" s="54"/>
     </row>
     <row r="69" spans="7:8" s="47" customFormat="1">
       <c r="G69" s="45"/>
-      <c r="H69" s="55"/>
+      <c r="H69" s="54"/>
     </row>
     <row r="70" spans="7:8" s="47" customFormat="1">
       <c r="G70" s="45"/>
-      <c r="H70" s="55"/>
+      <c r="H70" s="54"/>
     </row>
     <row r="71" spans="7:8" s="47" customFormat="1">
       <c r="G71" s="45"/>
-      <c r="H71" s="55"/>
+      <c r="H71" s="54"/>
     </row>
     <row r="72" spans="7:8" s="47" customFormat="1">
       <c r="G72" s="45"/>
-      <c r="H72" s="55"/>
+      <c r="H72" s="54"/>
     </row>
     <row r="73" spans="7:8" s="47" customFormat="1">
       <c r="G73" s="45"/>
-      <c r="H73" s="55"/>
+      <c r="H73" s="54"/>
     </row>
     <row r="74" spans="7:8" s="47" customFormat="1">
       <c r="G74" s="45"/>
-      <c r="H74" s="55"/>
+      <c r="H74" s="54"/>
     </row>
     <row r="75" spans="7:8" s="47" customFormat="1">
       <c r="G75" s="45"/>
-      <c r="H75" s="55"/>
+      <c r="H75" s="54"/>
     </row>
     <row r="76" spans="7:8" s="47" customFormat="1">
       <c r="G76" s="45"/>
-      <c r="H76" s="55"/>
+      <c r="H76" s="54"/>
     </row>
     <row r="77" spans="7:8" s="47" customFormat="1">
       <c r="G77" s="45"/>
-      <c r="H77" s="55"/>
+      <c r="H77" s="54"/>
     </row>
     <row r="78" spans="7:8" s="47" customFormat="1">
       <c r="G78" s="45"/>
-      <c r="H78" s="55"/>
+      <c r="H78" s="54"/>
     </row>
     <row r="79" spans="7:8" s="47" customFormat="1">
       <c r="G79" s="45"/>
-      <c r="H79" s="55"/>
+      <c r="H79" s="54"/>
     </row>
     <row r="80" spans="7:8" s="47" customFormat="1">
       <c r="G80" s="45"/>
-      <c r="H80" s="55"/>
+      <c r="H80" s="54"/>
     </row>
     <row r="81" spans="7:8" s="47" customFormat="1">
       <c r="G81" s="45"/>
-      <c r="H81" s="55"/>
+      <c r="H81" s="54"/>
     </row>
     <row r="82" spans="7:8" s="47" customFormat="1">
       <c r="G82" s="45"/>
-      <c r="H82" s="55"/>
+      <c r="H82" s="54"/>
     </row>
     <row r="83" spans="7:8" s="47" customFormat="1">
       <c r="G83" s="45"/>
-      <c r="H83" s="55"/>
+      <c r="H83" s="54"/>
     </row>
     <row r="84" spans="7:8" s="47" customFormat="1">
       <c r="G84" s="45"/>
-      <c r="H84" s="55"/>
+      <c r="H84" s="54"/>
     </row>
     <row r="85" spans="7:8" s="47" customFormat="1">
       <c r="G85" s="45"/>
-      <c r="H85" s="55"/>
+      <c r="H85" s="54"/>
     </row>
     <row r="86" spans="7:8" s="47" customFormat="1">
       <c r="G86" s="45"/>
-      <c r="H86" s="55"/>
+      <c r="H86" s="54"/>
     </row>
     <row r="87" spans="7:8" s="47" customFormat="1">
       <c r="G87" s="45"/>
-      <c r="H87" s="55"/>
+      <c r="H87" s="54"/>
     </row>
     <row r="88" spans="7:8" s="47" customFormat="1">
       <c r="G88" s="45"/>
-      <c r="H88" s="55"/>
+      <c r="H88" s="54"/>
     </row>
     <row r="89" spans="7:8" s="47" customFormat="1">
       <c r="G89" s="45"/>
-      <c r="H89" s="55"/>
+      <c r="H89" s="54"/>
     </row>
     <row r="90" spans="7:8" s="47" customFormat="1">
       <c r="G90" s="45"/>
-      <c r="H90" s="55"/>
+      <c r="H90" s="54"/>
     </row>
     <row r="91" spans="7:8" s="47" customFormat="1">
       <c r="G91" s="45"/>
-      <c r="H91" s="55"/>
+      <c r="H91" s="54"/>
     </row>
     <row r="92" spans="7:8" s="47" customFormat="1">
       <c r="G92" s="45"/>
-      <c r="H92" s="55"/>
+      <c r="H92" s="54"/>
     </row>
     <row r="93" spans="7:8" s="47" customFormat="1">
       <c r="G93" s="45"/>
-      <c r="H93" s="55"/>
+      <c r="H93" s="54"/>
     </row>
     <row r="94" spans="7:8" s="47" customFormat="1">
       <c r="G94" s="45"/>
-      <c r="H94" s="55"/>
+      <c r="H94" s="54"/>
     </row>
     <row r="95" spans="7:8" s="47" customFormat="1">
       <c r="G95" s="45"/>
-      <c r="H95" s="55"/>
+      <c r="H95" s="54"/>
     </row>
     <row r="96" spans="7:8" s="47" customFormat="1">
       <c r="G96" s="45"/>
-      <c r="H96" s="55"/>
+      <c r="H96" s="54"/>
     </row>
     <row r="97" spans="7:8" s="47" customFormat="1">
       <c r="G97" s="45"/>
-      <c r="H97" s="55"/>
+      <c r="H97" s="54"/>
     </row>
     <row r="98" spans="7:8" s="47" customFormat="1">
       <c r="G98" s="45"/>
-      <c r="H98" s="55"/>
+      <c r="H98" s="54"/>
     </row>
     <row r="99" spans="7:8" s="47" customFormat="1">
       <c r="G99" s="45"/>
-      <c r="H99" s="55"/>
+      <c r="H99" s="54"/>
     </row>
     <row r="100" spans="7:8" s="47" customFormat="1">
       <c r="G100" s="45"/>
-      <c r="H100" s="55"/>
+      <c r="H100" s="54"/>
     </row>
     <row r="101" spans="7:8" s="47" customFormat="1">
       <c r="G101" s="45"/>
-      <c r="H101" s="55"/>
+      <c r="H101" s="54"/>
     </row>
     <row r="102" spans="7:8" s="47" customFormat="1">
       <c r="G102" s="45"/>
-      <c r="H102" s="55"/>
+      <c r="H102" s="54"/>
     </row>
     <row r="103" spans="7:8" s="47" customFormat="1">
       <c r="G103" s="45"/>
-      <c r="H103" s="55"/>
+      <c r="H103" s="54"/>
     </row>
     <row r="104" spans="7:8" s="47" customFormat="1">
       <c r="G104" s="45"/>
-      <c r="H104" s="55"/>
+      <c r="H104" s="54"/>
     </row>
     <row r="105" spans="7:8" s="47" customFormat="1">
       <c r="G105" s="45"/>
-      <c r="H105" s="55"/>
+      <c r="H105" s="54"/>
     </row>
     <row r="106" spans="7:8" s="47" customFormat="1">
       <c r="G106" s="45"/>
-      <c r="H106" s="55"/>
+      <c r="H106" s="54"/>
     </row>
     <row r="107" spans="7:8" s="47" customFormat="1">
       <c r="G107" s="45"/>
-      <c r="H107" s="55"/>
+      <c r="H107" s="54"/>
     </row>
     <row r="108" spans="7:8" s="47" customFormat="1">
       <c r="G108" s="45"/>
-      <c r="H108" s="55"/>
+      <c r="H108" s="54"/>
     </row>
     <row r="109" spans="7:8" s="47" customFormat="1">
       <c r="G109" s="45"/>
-      <c r="H109" s="55"/>
+      <c r="H109" s="54"/>
     </row>
     <row r="110" spans="7:8" s="47" customFormat="1">
       <c r="G110" s="45"/>
-      <c r="H110" s="55"/>
+      <c r="H110" s="54"/>
     </row>
     <row r="111" spans="7:8" s="47" customFormat="1">
       <c r="G111" s="45"/>
-      <c r="H111" s="55"/>
+      <c r="H111" s="54"/>
     </row>
     <row r="112" spans="7:8" s="47" customFormat="1">
       <c r="G112" s="45"/>
-      <c r="H112" s="55"/>
+      <c r="H112" s="54"/>
     </row>
     <row r="113" spans="7:8" s="47" customFormat="1">
       <c r="G113" s="45"/>
-      <c r="H113" s="55"/>
+      <c r="H113" s="54"/>
     </row>
     <row r="114" spans="7:8" s="47" customFormat="1">
       <c r="G114" s="45"/>
-      <c r="H114" s="55"/>
+      <c r="H114" s="54"/>
     </row>
     <row r="115" spans="7:8" s="47" customFormat="1">
       <c r="G115" s="45"/>
-      <c r="H115" s="55"/>
+      <c r="H115" s="54"/>
     </row>
     <row r="116" spans="7:8" s="47" customFormat="1">
       <c r="G116" s="45"/>
-      <c r="H116" s="55"/>
+      <c r="H116" s="54"/>
     </row>
     <row r="117" spans="7:8" s="47" customFormat="1">
       <c r="G117" s="45"/>
-      <c r="H117" s="55"/>
+      <c r="H117" s="54"/>
     </row>
     <row r="118" spans="7:8" s="47" customFormat="1">
       <c r="G118" s="45"/>
-      <c r="H118" s="55"/>
+      <c r="H118" s="54"/>
     </row>
     <row r="119" spans="7:8" s="47" customFormat="1">
       <c r="G119" s="45"/>
-      <c r="H119" s="55"/>
+      <c r="H119" s="54"/>
     </row>
     <row r="120" spans="7:8" s="47" customFormat="1">
       <c r="G120" s="45"/>
-      <c r="H120" s="55"/>
+      <c r="H120" s="54"/>
     </row>
     <row r="121" spans="7:8" s="47" customFormat="1">
       <c r="G121" s="45"/>
-      <c r="H121" s="55"/>
+      <c r="H121" s="54"/>
     </row>
     <row r="122" spans="7:8" s="47" customFormat="1">
       <c r="G122" s="45"/>
-      <c r="H122" s="55"/>
+      <c r="H122" s="54"/>
     </row>
     <row r="123" spans="7:8" s="47" customFormat="1">
       <c r="G123" s="45"/>
-      <c r="H123" s="55"/>
+      <c r="H123" s="54"/>
     </row>
     <row r="124" spans="7:8" s="47" customFormat="1">
       <c r="G124" s="45"/>
-      <c r="H124" s="55"/>
+      <c r="H124" s="54"/>
     </row>
     <row r="125" spans="7:8" s="47" customFormat="1">
       <c r="G125" s="45"/>
-      <c r="H125" s="55"/>
+      <c r="H125" s="54"/>
     </row>
     <row r="126" spans="7:8" s="47" customFormat="1">
       <c r="G126" s="45"/>
-      <c r="H126" s="55"/>
+      <c r="H126" s="54"/>
     </row>
     <row r="127" spans="7:8" s="47" customFormat="1">
       <c r="G127" s="45"/>
-      <c r="H127" s="55"/>
+      <c r="H127" s="54"/>
     </row>
     <row r="128" spans="7:8" s="47" customFormat="1">
       <c r="G128" s="45"/>
-      <c r="H128" s="55"/>
+      <c r="H128" s="54"/>
     </row>
     <row r="129" spans="7:8" s="47" customFormat="1">
       <c r="G129" s="45"/>
-      <c r="H129" s="55"/>
+      <c r="H129" s="54"/>
     </row>
     <row r="130" spans="7:8" s="47" customFormat="1">
       <c r="G130" s="45"/>
-      <c r="H130" s="55"/>
+      <c r="H130" s="54"/>
     </row>
     <row r="131" spans="7:8" s="47" customFormat="1">
       <c r="G131" s="45"/>
-      <c r="H131" s="55"/>
+      <c r="H131" s="54"/>
     </row>
     <row r="132" spans="7:8" s="47" customFormat="1">
       <c r="G132" s="45"/>
-      <c r="H132" s="55"/>
+      <c r="H132" s="54"/>
     </row>
     <row r="133" spans="7:8" s="47" customFormat="1">
       <c r="G133" s="45"/>
-      <c r="H133" s="55"/>
+      <c r="H133" s="54"/>
     </row>
     <row r="134" spans="7:8" s="47" customFormat="1">
       <c r="G134" s="45"/>
-      <c r="H134" s="55"/>
+      <c r="H134" s="54"/>
     </row>
     <row r="135" spans="7:8" s="47" customFormat="1">
       <c r="G135" s="45"/>
-      <c r="H135" s="55"/>
+      <c r="H135" s="54"/>
     </row>
     <row r="136" spans="7:8" s="47" customFormat="1">
       <c r="G136" s="45"/>
-      <c r="H136" s="55"/>
+      <c r="H136" s="54"/>
     </row>
     <row r="137" spans="7:8" s="47" customFormat="1">
       <c r="G137" s="45"/>
-      <c r="H137" s="55"/>
+      <c r="H137" s="54"/>
     </row>
     <row r="138" spans="7:8" s="47" customFormat="1">
       <c r="G138" s="45"/>
-      <c r="H138" s="55"/>
+      <c r="H138" s="54"/>
     </row>
     <row r="139" spans="7:8" s="47" customFormat="1">
       <c r="G139" s="45"/>
-      <c r="H139" s="55"/>
+      <c r="H139" s="54"/>
     </row>
     <row r="140" spans="7:8" s="47" customFormat="1">
       <c r="G140" s="45"/>
-      <c r="H140" s="55"/>
+      <c r="H140" s="54"/>
     </row>
     <row r="141" spans="7:8" s="47" customFormat="1">
       <c r="G141" s="45"/>
-      <c r="H141" s="55"/>
+      <c r="H141" s="54"/>
     </row>
     <row r="142" spans="7:8" s="47" customFormat="1">
       <c r="G142" s="45"/>
-      <c r="H142" s="55"/>
+      <c r="H142" s="54"/>
     </row>
     <row r="143" spans="7:8" s="47" customFormat="1">
       <c r="G143" s="45"/>
-      <c r="H143" s="55"/>
+      <c r="H143" s="54"/>
     </row>
     <row r="144" spans="7:8" s="47" customFormat="1">
       <c r="G144" s="45"/>
-      <c r="H144" s="55"/>
+      <c r="H144" s="54"/>
     </row>
     <row r="145" spans="7:8" s="47" customFormat="1">
       <c r="G145" s="45"/>
-      <c r="H145" s="55"/>
+      <c r="H145" s="54"/>
     </row>
     <row r="146" spans="7:8" s="47" customFormat="1">
       <c r="G146" s="45"/>
-      <c r="H146" s="55"/>
+      <c r="H146" s="54"/>
     </row>
     <row r="147" spans="7:8" s="47" customFormat="1">
       <c r="G147" s="45"/>
-      <c r="H147" s="55"/>
+      <c r="H147" s="54"/>
     </row>
     <row r="148" spans="7:8" s="47" customFormat="1">
       <c r="G148" s="45"/>
-      <c r="H148" s="55"/>
+      <c r="H148" s="54"/>
     </row>
     <row r="149" spans="7:8" s="47" customFormat="1">
       <c r="G149" s="45"/>
-      <c r="H149" s="55"/>
+      <c r="H149" s="54"/>
     </row>
     <row r="150" spans="7:8" s="47" customFormat="1">
       <c r="G150" s="45"/>
-      <c r="H150" s="55"/>
+      <c r="H150" s="54"/>
     </row>
     <row r="151" spans="7:8" s="47" customFormat="1">
       <c r="G151" s="45"/>
-      <c r="H151" s="55"/>
+      <c r="H151" s="54"/>
     </row>
     <row r="152" spans="7:8" s="47" customFormat="1">
       <c r="G152" s="45"/>
-      <c r="H152" s="55"/>
+      <c r="H152" s="54"/>
     </row>
     <row r="153" spans="7:8" s="47" customFormat="1">
       <c r="G153" s="45"/>
-      <c r="H153" s="55"/>
+      <c r="H153" s="54"/>
     </row>
     <row r="154" spans="7:8" s="47" customFormat="1">
       <c r="G154" s="45"/>
-      <c r="H154" s="55"/>
+      <c r="H154" s="54"/>
     </row>
     <row r="155" spans="7:8" s="47" customFormat="1">
       <c r="G155" s="45"/>
-      <c r="H155" s="55"/>
+      <c r="H155" s="54"/>
     </row>
     <row r="156" spans="7:8" s="47" customFormat="1">
       <c r="G156" s="45"/>
-      <c r="H156" s="55"/>
+      <c r="H156" s="54"/>
     </row>
     <row r="157" spans="7:8" s="47" customFormat="1">
       <c r="G157" s="45"/>
-      <c r="H157" s="55"/>
+      <c r="H157" s="54"/>
     </row>
     <row r="158" spans="7:8" s="47" customFormat="1">
       <c r="G158" s="45"/>
-      <c r="H158" s="55"/>
+      <c r="H158" s="54"/>
     </row>
     <row r="159" spans="7:8" s="47" customFormat="1">
       <c r="G159" s="45"/>
-      <c r="H159" s="55"/>
+      <c r="H159" s="54"/>
     </row>
     <row r="160" spans="7:8" s="47" customFormat="1">
       <c r="G160" s="45"/>
-      <c r="H160" s="55"/>
+      <c r="H160" s="54"/>
     </row>
     <row r="161" spans="7:8" s="47" customFormat="1">
       <c r="G161" s="45"/>
-      <c r="H161" s="55"/>
+      <c r="H161" s="54"/>
     </row>
     <row r="162" spans="7:8" s="47" customFormat="1">
       <c r="G162" s="45"/>
-      <c r="H162" s="55"/>
+      <c r="H162" s="54"/>
     </row>
     <row r="163" spans="7:8" s="47" customFormat="1">
       <c r="G163" s="45"/>
-      <c r="H163" s="55"/>
+      <c r="H163" s="54"/>
     </row>
     <row r="164" spans="7:8" s="47" customFormat="1">
       <c r="G164" s="45"/>
-      <c r="H164" s="55"/>
+      <c r="H164" s="54"/>
     </row>
     <row r="165" spans="7:8" s="47" customFormat="1">
       <c r="G165" s="45"/>
-      <c r="H165" s="55"/>
+      <c r="H165" s="54"/>
     </row>
     <row r="166" spans="7:8" s="47" customFormat="1">
       <c r="G166" s="45"/>
-      <c r="H166" s="55"/>
+      <c r="H166" s="54"/>
     </row>
     <row r="167" spans="7:8" s="47" customFormat="1">
       <c r="G167" s="45"/>
-      <c r="H167" s="55"/>
+      <c r="H167" s="54"/>
     </row>
     <row r="168" spans="7:8" s="47" customFormat="1">
       <c r="G168" s="45"/>
-      <c r="H168" s="55"/>
+      <c r="H168" s="54"/>
     </row>
     <row r="169" spans="7:8" s="47" customFormat="1">
       <c r="G169" s="45"/>
-      <c r="H169" s="55"/>
+      <c r="H169" s="54"/>
     </row>
     <row r="170" spans="7:8" s="47" customFormat="1">
       <c r="G170" s="45"/>
-      <c r="H170" s="55"/>
+      <c r="H170" s="54"/>
     </row>
     <row r="171" spans="7:8" s="47" customFormat="1">
       <c r="G171" s="45"/>
-      <c r="H171" s="55"/>
+      <c r="H171" s="54"/>
     </row>
     <row r="172" spans="7:8" s="47" customFormat="1">
       <c r="G172" s="45"/>
-      <c r="H172" s="55"/>
+      <c r="H172" s="54"/>
     </row>
     <row r="173" spans="7:8" s="47" customFormat="1">
       <c r="G173" s="45"/>
-      <c r="H173" s="55"/>
+      <c r="H173" s="54"/>
     </row>
     <row r="174" spans="7:8" s="47" customFormat="1">
       <c r="G174" s="45"/>
-      <c r="H174" s="55"/>
+      <c r="H174" s="54"/>
     </row>
     <row r="175" spans="7:8" s="47" customFormat="1">
       <c r="G175" s="45"/>
-      <c r="H175" s="55"/>
+      <c r="H175" s="54"/>
     </row>
     <row r="176" spans="7:8" s="47" customFormat="1">
       <c r="G176" s="45"/>
-      <c r="H176" s="55"/>
+      <c r="H176" s="54"/>
     </row>
     <row r="177" spans="7:8" s="47" customFormat="1">
       <c r="G177" s="45"/>
-      <c r="H177" s="55"/>
+      <c r="H177" s="54"/>
     </row>
     <row r="178" spans="7:8" s="47" customFormat="1">
       <c r="G178" s="45"/>
-      <c r="H178" s="55"/>
+      <c r="H178" s="54"/>
     </row>
     <row r="179" spans="7:8" s="47" customFormat="1">
       <c r="G179" s="45"/>
-      <c r="H179" s="55"/>
+      <c r="H179" s="54"/>
     </row>
     <row r="180" spans="7:8" s="47" customFormat="1">
       <c r="G180" s="45"/>
-      <c r="H180" s="55"/>
+      <c r="H180" s="54"/>
     </row>
     <row r="181" spans="7:8" s="47" customFormat="1">
       <c r="G181" s="45"/>
-      <c r="H181" s="55"/>
+      <c r="H181" s="54"/>
     </row>
     <row r="182" spans="7:8" s="47" customFormat="1">
       <c r="G182" s="45"/>
-      <c r="H182" s="55"/>
+      <c r="H182" s="54"/>
     </row>
     <row r="183" spans="7:8" s="47" customFormat="1">
       <c r="G183" s="45"/>
-      <c r="H183" s="55"/>
+      <c r="H183" s="54"/>
     </row>
     <row r="184" spans="7:8" s="47" customFormat="1">
       <c r="G184" s="45"/>
-      <c r="H184" s="55"/>
+      <c r="H184" s="54"/>
     </row>
     <row r="185" spans="7:8" s="47" customFormat="1">
       <c r="G185" s="45"/>
-      <c r="H185" s="55"/>
+      <c r="H185" s="54"/>
     </row>
     <row r="186" spans="7:8" s="47" customFormat="1">
       <c r="G186" s="45"/>
-      <c r="H186" s="55"/>
+      <c r="H186" s="54"/>
     </row>
     <row r="187" spans="7:8" s="47" customFormat="1">
       <c r="G187" s="45"/>
-      <c r="H187" s="55"/>
+      <c r="H187" s="54"/>
     </row>
     <row r="188" spans="7:8" s="47" customFormat="1">
       <c r="G188" s="45"/>
-      <c r="H188" s="55"/>
+      <c r="H188" s="54"/>
     </row>
     <row r="189" spans="7:8" s="47" customFormat="1">
       <c r="G189" s="45"/>
-      <c r="H189" s="55"/>
+      <c r="H189" s="54"/>
     </row>
     <row r="190" spans="7:8" s="47" customFormat="1">
       <c r="G190" s="45"/>
-      <c r="H190" s="55"/>
+      <c r="H190" s="54"/>
     </row>
     <row r="191" spans="7:8" s="47" customFormat="1">
       <c r="G191" s="45"/>
-      <c r="H191" s="55"/>
+      <c r="H191" s="54"/>
     </row>
     <row r="192" spans="7:8" s="47" customFormat="1">
       <c r="G192" s="45"/>
-      <c r="H192" s="55"/>
+      <c r="H192" s="54"/>
     </row>
     <row r="193" spans="7:8" s="47" customFormat="1">
       <c r="G193" s="45"/>
-      <c r="H193" s="55"/>
+      <c r="H193" s="54"/>
     </row>
     <row r="194" spans="7:8" s="47" customFormat="1">
       <c r="G194" s="45"/>
-      <c r="H194" s="55"/>
+      <c r="H194" s="54"/>
     </row>
     <row r="195" spans="7:8" s="47" customFormat="1">
       <c r="G195" s="45"/>
-      <c r="H195" s="55"/>
+      <c r="H195" s="54"/>
     </row>
     <row r="196" spans="7:8" s="47" customFormat="1">
       <c r="G196" s="45"/>
-      <c r="H196" s="55"/>
+      <c r="H196" s="54"/>
     </row>
     <row r="197" spans="7:8" s="47" customFormat="1">
       <c r="G197" s="45"/>
-      <c r="H197" s="55"/>
+      <c r="H197" s="54"/>
     </row>
     <row r="198" spans="7:8" s="47" customFormat="1">
       <c r="G198" s="45"/>
-      <c r="H198" s="55"/>
+      <c r="H198" s="54"/>
     </row>
     <row r="199" spans="7:8" s="47" customFormat="1">
       <c r="G199" s="45"/>
-      <c r="H199" s="55"/>
+      <c r="H199" s="54"/>
     </row>
     <row r="200" spans="7:8" s="47" customFormat="1">
       <c r="G200" s="45"/>
-      <c r="H200" s="55"/>
+      <c r="H200" s="54"/>
     </row>
     <row r="201" spans="7:8" s="47" customFormat="1">
       <c r="G201" s="45"/>
-      <c r="H201" s="55"/>
+      <c r="H201" s="54"/>
     </row>
     <row r="202" spans="7:8" s="47" customFormat="1">
       <c r="G202" s="45"/>
-      <c r="H202" s="55"/>
+      <c r="H202" s="54"/>
     </row>
     <row r="203" spans="7:8" s="47" customFormat="1">
       <c r="G203" s="45"/>
-      <c r="H203" s="55"/>
+      <c r="H203" s="54"/>
     </row>
     <row r="204" spans="7:8" s="47" customFormat="1">
       <c r="G204" s="45"/>
-      <c r="H204" s="55"/>
+      <c r="H204" s="54"/>
     </row>
     <row r="205" spans="7:8" s="47" customFormat="1">
       <c r="G205" s="45"/>
-      <c r="H205" s="55"/>
+      <c r="H205" s="54"/>
     </row>
     <row r="206" spans="7:8" s="47" customFormat="1">
       <c r="G206" s="45"/>
-      <c r="H206" s="55"/>
+      <c r="H206" s="54"/>
     </row>
     <row r="207" spans="7:8" s="47" customFormat="1">
       <c r="G207" s="45"/>
-      <c r="H207" s="55"/>
+      <c r="H207" s="54"/>
     </row>
     <row r="208" spans="7:8" s="47" customFormat="1">
       <c r="G208" s="45"/>
-      <c r="H208" s="55"/>
+      <c r="H208" s="54"/>
     </row>
     <row r="209" spans="7:8" s="47" customFormat="1">
       <c r="G209" s="45"/>
-      <c r="H209" s="55"/>
+      <c r="H209" s="54"/>
     </row>
     <row r="210" spans="7:8" s="47" customFormat="1">
       <c r="G210" s="45"/>
-      <c r="H210" s="55"/>
+      <c r="H210" s="54"/>
     </row>
     <row r="211" spans="7:8" s="47" customFormat="1">
       <c r="G211" s="45"/>
-      <c r="H211" s="55"/>
+      <c r="H211" s="54"/>
     </row>
     <row r="212" spans="7:8" s="47" customFormat="1">
       <c r="G212" s="45"/>
-      <c r="H212" s="55"/>
+      <c r="H212" s="54"/>
     </row>
     <row r="213" spans="7:8" s="47" customFormat="1">
       <c r="G213" s="45"/>
-      <c r="H213" s="55"/>
+      <c r="H213" s="54"/>
     </row>
     <row r="214" spans="7:8" s="47" customFormat="1">
       <c r="G214" s="45"/>
-      <c r="H214" s="55"/>
+      <c r="H214" s="54"/>
     </row>
     <row r="215" spans="7:8" s="47" customFormat="1">
       <c r="G215" s="45"/>
-      <c r="H215" s="55"/>
+      <c r="H215" s="54"/>
     </row>
     <row r="216" spans="7:8" s="47" customFormat="1">
       <c r="G216" s="45"/>
-      <c r="H216" s="55"/>
+      <c r="H216" s="54"/>
     </row>
     <row r="217" spans="7:8" s="47" customFormat="1">
       <c r="G217" s="45"/>
-      <c r="H217" s="55"/>
+      <c r="H217" s="54"/>
     </row>
     <row r="218" spans="7:8" s="47" customFormat="1">
       <c r="G218" s="45"/>
-      <c r="H218" s="55"/>
+      <c r="H218" s="54"/>
     </row>
     <row r="219" spans="7:8" s="47" customFormat="1">
       <c r="G219" s="45"/>
-      <c r="H219" s="55"/>
+      <c r="H219" s="54"/>
     </row>
     <row r="220" spans="7:8" s="47" customFormat="1">
       <c r="G220" s="45"/>
-      <c r="H220" s="55"/>
+      <c r="H220" s="54"/>
     </row>
     <row r="221" spans="7:8" s="47" customFormat="1">
       <c r="G221" s="45"/>
-      <c r="H221" s="55"/>
+      <c r="H221" s="54"/>
     </row>
     <row r="222" spans="7:8" s="47" customFormat="1">
       <c r="G222" s="45"/>
-      <c r="H222" s="55"/>
+      <c r="H222" s="54"/>
     </row>
     <row r="223" spans="7:8" s="47" customFormat="1">
       <c r="G223" s="45"/>
-      <c r="H223" s="55"/>
+      <c r="H223" s="54"/>
     </row>
     <row r="224" spans="7:8" s="47" customFormat="1">
       <c r="G224" s="45"/>
-      <c r="H224" s="55"/>
+      <c r="H224" s="54"/>
     </row>
     <row r="225" spans="7:8" s="47" customFormat="1">
       <c r="G225" s="45"/>
-      <c r="H225" s="55"/>
+      <c r="H225" s="54"/>
     </row>
     <row r="226" spans="7:8" s="47" customFormat="1">
       <c r="G226" s="45"/>
-      <c r="H226" s="55"/>
+      <c r="H226" s="54"/>
     </row>
     <row r="227" spans="7:8" s="47" customFormat="1">
       <c r="G227" s="45"/>
-      <c r="H227" s="55"/>
+      <c r="H227" s="54"/>
     </row>
     <row r="228" spans="7:8" s="47" customFormat="1">
       <c r="G228" s="45"/>
-      <c r="H228" s="55"/>
+      <c r="H228" s="54"/>
     </row>
     <row r="229" spans="7:8" s="47" customFormat="1">
       <c r="G229" s="45"/>
-      <c r="H229" s="55"/>
+      <c r="H229" s="54"/>
     </row>
     <row r="230" spans="7:8" s="47" customFormat="1">
       <c r="G230" s="45"/>
-      <c r="H230" s="55"/>
+      <c r="H230" s="54"/>
     </row>
     <row r="231" spans="7:8" s="47" customFormat="1">
       <c r="G231" s="45"/>
-      <c r="H231" s="55"/>
+      <c r="H231" s="54"/>
     </row>
     <row r="232" spans="7:8" s="47" customFormat="1">
       <c r="G232" s="45"/>
-      <c r="H232" s="55"/>
+      <c r="H232" s="54"/>
     </row>
     <row r="233" spans="7:8" s="47" customFormat="1">
       <c r="G233" s="45"/>
-      <c r="H233" s="55"/>
+      <c r="H233" s="54"/>
     </row>
     <row r="234" spans="7:8" s="47" customFormat="1">
       <c r="G234" s="45"/>
-      <c r="H234" s="55"/>
+      <c r="H234" s="54"/>
     </row>
     <row r="235" spans="7:8" s="47" customFormat="1">
       <c r="G235" s="45"/>
-      <c r="H235" s="55"/>
+      <c r="H235" s="54"/>
     </row>
     <row r="236" spans="7:8" s="47" customFormat="1">
       <c r="G236" s="45"/>
-      <c r="H236" s="55"/>
+      <c r="H236" s="54"/>
     </row>
     <row r="237" spans="7:8" s="47" customFormat="1">
       <c r="G237" s="45"/>
-      <c r="H237" s="55"/>
+      <c r="H237" s="54"/>
     </row>
     <row r="238" spans="7:8" s="47" customFormat="1">
       <c r="G238" s="45"/>
-      <c r="H238" s="55"/>
+      <c r="H238" s="54"/>
     </row>
     <row r="239" spans="7:8" s="47" customFormat="1">
       <c r="G239" s="45"/>
-      <c r="H239" s="55"/>
+      <c r="H239" s="54"/>
     </row>
     <row r="240" spans="7:8" s="47" customFormat="1">
       <c r="G240" s="45"/>
-      <c r="H240" s="55"/>
+      <c r="H240" s="54"/>
     </row>
     <row r="241" spans="7:8" s="47" customFormat="1">
       <c r="G241" s="45"/>
-      <c r="H241" s="55"/>
+      <c r="H241" s="54"/>
     </row>
     <row r="242" spans="7:8" s="47" customFormat="1">
       <c r="G242" s="45"/>
-      <c r="H242" s="55"/>
+      <c r="H242" s="54"/>
     </row>
     <row r="243" spans="7:8" s="47" customFormat="1">
       <c r="G243" s="45"/>
-      <c r="H243" s="55"/>
+      <c r="H243" s="54"/>
     </row>
     <row r="244" spans="7:8" s="47" customFormat="1">
       <c r="G244" s="45"/>
-      <c r="H244" s="55"/>
+      <c r="H244" s="54"/>
     </row>
     <row r="245" spans="7:8" s="47" customFormat="1">
       <c r="G245" s="45"/>
-      <c r="H245" s="55"/>
+      <c r="H245" s="54"/>
     </row>
     <row r="246" spans="7:8" s="47" customFormat="1">
       <c r="G246" s="45"/>
-      <c r="H246" s="55"/>
+      <c r="H246" s="54"/>
     </row>
     <row r="247" spans="7:8" s="47" customFormat="1">
       <c r="G247" s="45"/>
-      <c r="H247" s="55"/>
+      <c r="H247" s="54"/>
     </row>
     <row r="248" spans="7:8" s="47" customFormat="1">
       <c r="G248" s="45"/>
-      <c r="H248" s="55"/>
+      <c r="H248" s="54"/>
     </row>
     <row r="249" spans="7:8" s="47" customFormat="1">
       <c r="G249" s="45"/>
-      <c r="H249" s="55"/>
+      <c r="H249" s="54"/>
     </row>
     <row r="250" spans="7:8" s="47" customFormat="1">
       <c r="G250" s="45"/>
-      <c r="H250" s="55"/>
+      <c r="H250" s="54"/>
     </row>
     <row r="251" spans="7:8" s="47" customFormat="1">
       <c r="G251" s="45"/>
-      <c r="H251" s="55"/>
+      <c r="H251" s="54"/>
     </row>
     <row r="252" spans="7:8" s="47" customFormat="1">
       <c r="G252" s="45"/>
-      <c r="H252" s="55"/>
+      <c r="H252" s="54"/>
     </row>
     <row r="253" spans="7:8" s="47" customFormat="1">
       <c r="G253" s="45"/>
-      <c r="H253" s="55"/>
+      <c r="H253" s="54"/>
     </row>
     <row r="254" spans="7:8" s="47" customFormat="1">
       <c r="G254" s="45"/>
-      <c r="H254" s="55"/>
+      <c r="H254" s="54"/>
     </row>
     <row r="255" spans="7:8" s="47" customFormat="1">
       <c r="G255" s="45"/>
-      <c r="H255" s="55"/>
+      <c r="H255" s="54"/>
     </row>
     <row r="256" spans="7:8" s="47" customFormat="1">
       <c r="G256" s="45"/>
-      <c r="H256" s="55"/>
+      <c r="H256" s="54"/>
     </row>
     <row r="257" spans="7:8" s="47" customFormat="1">
       <c r="G257" s="45"/>
-      <c r="H257" s="55"/>
+      <c r="H257" s="54"/>
     </row>
     <row r="258" spans="7:8" s="47" customFormat="1">
       <c r="G258" s="45"/>
-      <c r="H258" s="55"/>
+      <c r="H258" s="54"/>
     </row>
     <row r="259" spans="7:8" s="47" customFormat="1">
       <c r="G259" s="45"/>
-      <c r="H259" s="55"/>
+      <c r="H259" s="54"/>
     </row>
     <row r="260" spans="7:8" s="47" customFormat="1">
       <c r="G260" s="45"/>
-      <c r="H260" s="55"/>
+      <c r="H260" s="54"/>
     </row>
     <row r="261" spans="7:8" s="47" customFormat="1">
       <c r="G261" s="45"/>
-      <c r="H261" s="55"/>
+      <c r="H261" s="54"/>
     </row>
     <row r="262" spans="7:8" s="47" customFormat="1">
       <c r="G262" s="45"/>
-      <c r="H262" s="55"/>
+      <c r="H262" s="54"/>
     </row>
     <row r="263" spans="7:8" s="47" customFormat="1">
       <c r="G263" s="45"/>
-      <c r="H263" s="55"/>
+      <c r="H263" s="54"/>
     </row>
     <row r="264" spans="7:8" s="47" customFormat="1">
       <c r="G264" s="45"/>
-      <c r="H264" s="55"/>
+      <c r="H264" s="54"/>
     </row>
     <row r="265" spans="7:8" s="47" customFormat="1">
       <c r="G265" s="45"/>
-      <c r="H265" s="55"/>
+      <c r="H265" s="54"/>
     </row>
     <row r="266" spans="7:8" s="47" customFormat="1">
       <c r="G266" s="45"/>
-      <c r="H266" s="55"/>
+      <c r="H266" s="54"/>
     </row>
     <row r="267" spans="7:8" s="47" customFormat="1">
       <c r="G267" s="45"/>
-      <c r="H267" s="55"/>
+      <c r="H267" s="54"/>
     </row>
     <row r="268" spans="7:8" s="47" customFormat="1">
       <c r="G268" s="45"/>
-      <c r="H268" s="55"/>
+      <c r="H268" s="54"/>
     </row>
     <row r="269" spans="7:8" s="47" customFormat="1">
       <c r="G269" s="45"/>
-      <c r="H269" s="55"/>
+      <c r="H269" s="54"/>
     </row>
     <row r="270" spans="7:8" s="47" customFormat="1">
       <c r="G270" s="45"/>
-      <c r="H270" s="55"/>
+      <c r="H270" s="54"/>
     </row>
     <row r="271" spans="7:8" s="47" customFormat="1">
       <c r="G271" s="45"/>
-      <c r="H271" s="55"/>
+      <c r="H271" s="54"/>
     </row>
     <row r="272" spans="7:8" s="47" customFormat="1">
       <c r="G272" s="45"/>
-      <c r="H272" s="55"/>
+      <c r="H272" s="54"/>
     </row>
     <row r="273" spans="7:8" s="47" customFormat="1">
       <c r="G273" s="45"/>
-      <c r="H273" s="55"/>
+      <c r="H273" s="54"/>
     </row>
     <row r="274" spans="7:8" s="47" customFormat="1">
       <c r="G274" s="45"/>
-      <c r="H274" s="55"/>
+      <c r="H274" s="54"/>
     </row>
     <row r="275" spans="7:8" s="47" customFormat="1">
       <c r="G275" s="45"/>
-      <c r="H275" s="55"/>
+      <c r="H275" s="54"/>
     </row>
     <row r="276" spans="7:8" s="47" customFormat="1">
       <c r="G276" s="45"/>
-      <c r="H276" s="55"/>
+      <c r="H276" s="54"/>
     </row>
     <row r="277" spans="7:8" s="47" customFormat="1">
       <c r="G277" s="45"/>
-      <c r="H277" s="55"/>
+      <c r="H277" s="54"/>
     </row>
     <row r="278" spans="7:8" s="47" customFormat="1">
       <c r="G278" s="45"/>
-      <c r="H278" s="55"/>
+      <c r="H278" s="54"/>
     </row>
     <row r="279" spans="7:8" s="47" customFormat="1">
       <c r="G279" s="45"/>
-      <c r="H279" s="55"/>
+      <c r="H279" s="54"/>
     </row>
     <row r="280" spans="7:8" s="47" customFormat="1">
       <c r="G280" s="45"/>
-      <c r="H280" s="55"/>
+      <c r="H280" s="54"/>
     </row>
     <row r="281" spans="7:8" s="47" customFormat="1">
       <c r="G281" s="45"/>
-      <c r="H281" s="55"/>
+      <c r="H281" s="54"/>
     </row>
     <row r="282" spans="7:8" s="47" customFormat="1">
       <c r="G282" s="45"/>
-      <c r="H282" s="55"/>
+      <c r="H282" s="54"/>
     </row>
     <row r="283" spans="7:8" s="47" customFormat="1">
       <c r="G283" s="45"/>
-      <c r="H283" s="55"/>
+      <c r="H283" s="54"/>
     </row>
     <row r="284" spans="7:8" s="47" customFormat="1">
       <c r="G284" s="45"/>
-      <c r="H284" s="55"/>
+      <c r="H284" s="54"/>
     </row>
     <row r="285" spans="7:8" s="47" customFormat="1">
       <c r="G285" s="45"/>
-      <c r="H285" s="55"/>
+      <c r="H285" s="54"/>
     </row>
     <row r="286" spans="7:8" s="47" customFormat="1">
       <c r="G286" s="45"/>
-      <c r="H286" s="55"/>
+      <c r="H286" s="54"/>
     </row>
     <row r="287" spans="7:8" s="47" customFormat="1">
       <c r="G287" s="45"/>
-      <c r="H287" s="55"/>
+      <c r="H287" s="54"/>
     </row>
     <row r="288" spans="7:8" s="47" customFormat="1">
       <c r="G288" s="45"/>
-      <c r="H288" s="55"/>
+      <c r="H288" s="54"/>
     </row>
     <row r="289" spans="7:8" s="47" customFormat="1">
       <c r="G289" s="45"/>
-      <c r="H289" s="55"/>
+      <c r="H289" s="54"/>
     </row>
     <row r="290" spans="7:8" s="47" customFormat="1">
       <c r="G290" s="45"/>
-      <c r="H290" s="55"/>
+      <c r="H290" s="54"/>
     </row>
     <row r="291" spans="7:8" s="47" customFormat="1">
       <c r="G291" s="45"/>
-      <c r="H291" s="55"/>
+      <c r="H291" s="54"/>
     </row>
     <row r="292" spans="7:8" s="47" customFormat="1">
       <c r="G292" s="45"/>
-      <c r="H292" s="55"/>
+      <c r="H292" s="54"/>
     </row>
     <row r="293" spans="7:8" s="47" customFormat="1">
       <c r="G293" s="45"/>
-      <c r="H293" s="55"/>
+      <c r="H293" s="54"/>
     </row>
     <row r="294" spans="7:8" s="47" customFormat="1">
       <c r="G294" s="45"/>
-      <c r="H294" s="55"/>
+      <c r="H294" s="54"/>
     </row>
     <row r="295" spans="7:8" s="47" customFormat="1">
       <c r="G295" s="45"/>
-      <c r="H295" s="55"/>
+      <c r="H295" s="54"/>
     </row>
     <row r="296" spans="7:8" s="47" customFormat="1">
       <c r="G296" s="45"/>
-      <c r="H296" s="55"/>
+      <c r="H296" s="54"/>
     </row>
     <row r="297" spans="7:8" s="47" customFormat="1">
       <c r="G297" s="45"/>
-      <c r="H297" s="55"/>
+      <c r="H297" s="54"/>
     </row>
     <row r="298" spans="7:8" s="47" customFormat="1">
       <c r="G298" s="45"/>
-      <c r="H298" s="55"/>
+      <c r="H298" s="54"/>
     </row>
     <row r="299" spans="7:8" s="47" customFormat="1">
       <c r="G299" s="45"/>
-      <c r="H299" s="55"/>
+      <c r="H299" s="54"/>
     </row>
     <row r="300" spans="7:8" s="47" customFormat="1">
       <c r="G300" s="45"/>
-      <c r="H300" s="55"/>
+      <c r="H300" s="54"/>
     </row>
     <row r="301" spans="7:8" s="47" customFormat="1">
       <c r="G301" s="45"/>
-      <c r="H301" s="55"/>
+      <c r="H301" s="54"/>
     </row>
     <row r="302" spans="7:8" s="47" customFormat="1">
       <c r="G302" s="45"/>
-      <c r="H302" s="55"/>
+      <c r="H302" s="54"/>
     </row>
     <row r="303" spans="7:8" s="47" customFormat="1">
       <c r="G303" s="45"/>
-      <c r="H303" s="55"/>
+      <c r="H303" s="54"/>
     </row>
     <row r="304" spans="7:8" s="47" customFormat="1">
       <c r="G304" s="45"/>
-      <c r="H304" s="55"/>
+      <c r="H304" s="54"/>
     </row>
     <row r="305" spans="7:8" s="47" customFormat="1">
       <c r="G305" s="45"/>
-      <c r="H305" s="55"/>
+      <c r="H305" s="54"/>
     </row>
     <row r="306" spans="7:8" s="47" customFormat="1">
       <c r="G306" s="45"/>
-      <c r="H306" s="55"/>
+      <c r="H306" s="54"/>
     </row>
     <row r="307" spans="7:8" s="47" customFormat="1">
       <c r="G307" s="45"/>
-      <c r="H307" s="55"/>
+      <c r="H307" s="54"/>
     </row>
     <row r="308" spans="7:8" s="47" customFormat="1">
       <c r="G308" s="45"/>
-      <c r="H308" s="55"/>
+      <c r="H308" s="54"/>
     </row>
     <row r="309" spans="7:8" s="47" customFormat="1">
       <c r="G309" s="45"/>
-      <c r="H309" s="55"/>
+      <c r="H309" s="54"/>
     </row>
     <row r="310" spans="7:8" s="47" customFormat="1">
       <c r="G310" s="45"/>
-      <c r="H310" s="55"/>
+      <c r="H310" s="54"/>
     </row>
     <row r="311" spans="7:8" s="47" customFormat="1">
       <c r="G311" s="45"/>
-      <c r="H311" s="55"/>
+      <c r="H311" s="54"/>
     </row>
     <row r="312" spans="7:8" s="47" customFormat="1">
       <c r="G312" s="45"/>
-      <c r="H312" s="55"/>
+      <c r="H312" s="54"/>
     </row>
     <row r="313" spans="7:8" s="47" customFormat="1">
       <c r="G313" s="45"/>
-      <c r="H313" s="55"/>
+      <c r="H313" s="54"/>
     </row>
     <row r="314" spans="7:8" s="47" customFormat="1">
       <c r="G314" s="45"/>
-      <c r="H314" s="55"/>
+      <c r="H314" s="54"/>
     </row>
     <row r="315" spans="7:8" s="47" customFormat="1">
       <c r="G315" s="45"/>
-      <c r="H315" s="55"/>
+      <c r="H315" s="54"/>
     </row>
     <row r="316" spans="7:8" s="47" customFormat="1">
       <c r="G316" s="45"/>
-      <c r="H316" s="55"/>
+      <c r="H316" s="54"/>
     </row>
     <row r="317" spans="7:8" s="47" customFormat="1">
       <c r="G317" s="45"/>
-      <c r="H317" s="55"/>
+      <c r="H317" s="54"/>
     </row>
     <row r="318" spans="7:8" s="47" customFormat="1">
       <c r="G318" s="45"/>
-      <c r="H318" s="55"/>
+      <c r="H318" s="54"/>
     </row>
     <row r="319" spans="7:8" s="47" customFormat="1">
       <c r="G319" s="45"/>
-      <c r="H319" s="55"/>
+      <c r="H319" s="54"/>
     </row>
     <row r="320" spans="7:8" s="47" customFormat="1">
       <c r="G320" s="45"/>
-      <c r="H320" s="55"/>
+      <c r="H320" s="54"/>
     </row>
     <row r="321" spans="7:8" s="47" customFormat="1">
       <c r="G321" s="45"/>
-      <c r="H321" s="55"/>
+      <c r="H321" s="54"/>
     </row>
     <row r="322" spans="7:8" s="47" customFormat="1">
       <c r="G322" s="45"/>
-      <c r="H322" s="55"/>
+      <c r="H322" s="54"/>
     </row>
     <row r="323" spans="7:8" s="47" customFormat="1">
       <c r="G323" s="45"/>
-      <c r="H323" s="55"/>
+      <c r="H323" s="54"/>
     </row>
     <row r="324" spans="7:8" s="47" customFormat="1">
       <c r="G324" s="45"/>
-      <c r="H324" s="55"/>
+      <c r="H324" s="54"/>
     </row>
     <row r="325" spans="7:8" s="47" customFormat="1">
       <c r="G325" s="45"/>
-      <c r="H325" s="55"/>
+      <c r="H325" s="54"/>
     </row>
     <row r="326" spans="7:8" s="47" customFormat="1">
       <c r="G326" s="45"/>
-      <c r="H326" s="55"/>
+      <c r="H326" s="54"/>
     </row>
     <row r="327" spans="7:8" s="47" customFormat="1">
       <c r="G327" s="45"/>
-      <c r="H327" s="55"/>
+      <c r="H327" s="54"/>
     </row>
     <row r="328" spans="7:8" s="47" customFormat="1">
       <c r="G328" s="45"/>
-      <c r="H328" s="55"/>
+      <c r="H328" s="54"/>
     </row>
     <row r="329" spans="7:8" s="47" customFormat="1">
       <c r="G329" s="45"/>
-      <c r="H329" s="55"/>
+      <c r="H329" s="54"/>
     </row>
     <row r="330" spans="7:8" s="47" customFormat="1">
       <c r="G330" s="45"/>
-      <c r="H330" s="55"/>
+      <c r="H330" s="54"/>
     </row>
     <row r="331" spans="7:8" s="47" customFormat="1">
       <c r="G331" s="45"/>
-      <c r="H331" s="55"/>
+      <c r="H331" s="54"/>
     </row>
     <row r="332" spans="7:8" s="47" customFormat="1">
       <c r="G332" s="45"/>
-      <c r="H332" s="55"/>
+      <c r="H332" s="54"/>
     </row>
     <row r="333" spans="7:8" s="47" customFormat="1">
       <c r="G333" s="45"/>
-      <c r="H333" s="55"/>
-    </row>
-    <row r="334" spans="7:8" s="47" customFormat="1">
-      <c r="G334" s="45"/>
-      <c r="H334" s="55"/>
+      <c r="H333" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
